--- a/posesiones/1485984.xlsx
+++ b/posesiones/1485984.xlsx
@@ -1850,10 +1850,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2044,7 +2044,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>17</v>
@@ -2097,7 +2097,7 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8">
         <v>18</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2200,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <v>16</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2300,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2400,7 +2400,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R14">
         <v>22</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2644,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2691,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2788,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2835,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2932,7 +2932,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R25">
         <v>34</v>
@@ -2982,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3032,7 +3032,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R27">
         <v>12</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3132,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R29">
         <v>20</v>
@@ -3185,7 +3185,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R30">
         <v>11</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3285,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R32">
         <v>22</v>
@@ -3335,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3385,7 +3385,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R34">
         <v>18</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R40">
         <v>32</v>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3785,7 +3785,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R42">
         <v>8</v>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3882,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3932,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3982,7 +3982,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R46">
         <v>23</v>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4220,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4267,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4364,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4414,7 +4414,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R55">
         <v>17</v>
@@ -4467,7 +4467,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4517,7 +4517,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R57">
         <v>22</v>
@@ -4567,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4614,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4664,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4711,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4758,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4805,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4855,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R64">
         <v>13</v>
@@ -4908,7 +4908,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R65">
         <v>20</v>
@@ -4958,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5008,7 +5008,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R67">
         <v>16</v>
@@ -5061,7 +5061,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R68">
         <v>15</v>
@@ -5111,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5161,7 +5161,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R70">
         <v>20</v>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5261,7 +5261,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R72">
         <v>27</v>
@@ -5314,7 +5314,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R73">
         <v>20</v>
@@ -5367,7 +5367,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R74">
         <v>12</v>
@@ -5420,7 +5420,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R75">
         <v>23</v>
@@ -5473,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R77">
         <v>11</v>
@@ -5576,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R78">
         <v>18</v>
@@ -5629,7 +5629,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5679,7 +5679,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R80">
         <v>18</v>
@@ -5729,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5779,7 +5779,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R82">
         <v>24</v>
@@ -5832,7 +5832,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5882,7 +5882,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R84">
         <v>8</v>
@@ -5932,7 +5932,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5982,7 +5982,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R86">
         <v>11</v>
@@ -6035,7 +6035,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R87">
         <v>18</v>
@@ -6085,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6135,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R89">
         <v>7</v>
@@ -6185,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6232,7 +6232,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6279,7 +6279,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6326,7 +6326,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6373,7 +6373,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6420,7 +6420,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6514,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6561,7 +6561,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6658,7 +6658,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R100">
         <v>25</v>
@@ -6708,7 +6708,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6755,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6849,7 +6849,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6899,7 +6899,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R105">
         <v>0</v>
@@ -6949,7 +6949,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6999,7 +6999,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R107">
         <v>0</v>
@@ -7043,10 +7043,10 @@
         <v>1</v>
       </c>
       <c r="P108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q108">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7093,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7140,7 +7140,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7187,7 +7187,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7234,7 +7234,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7281,7 +7281,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7328,7 +7328,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7375,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7469,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7557,10 +7557,10 @@
         <v>1</v>
       </c>
       <c r="P119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q119">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7654,7 +7654,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7704,7 +7704,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R122">
         <v>28</v>
@@ -7754,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7804,7 +7804,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R124">
         <v>24</v>
@@ -7854,7 +7854,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7904,7 +7904,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R126">
         <v>22</v>
@@ -7954,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8001,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8048,7 +8048,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8098,7 +8098,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R130">
         <v>17</v>
@@ -8151,7 +8151,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R131">
         <v>24</v>
@@ -8201,7 +8201,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8248,7 +8248,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8345,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R135">
         <v>34</v>
@@ -8395,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8445,7 +8445,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R137">
         <v>22</v>
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8548,7 +8548,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R139">
         <v>8</v>
@@ -8598,7 +8598,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8645,7 +8645,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8692,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8742,7 +8742,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R143">
         <v>14</v>
@@ -8795,7 +8795,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R144">
         <v>5</v>
@@ -8848,7 +8848,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R145">
         <v>23</v>
@@ -8901,7 +8901,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -8995,7 +8995,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9042,7 +9042,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9095,7 +9095,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R150">
         <v>15</v>
@@ -9145,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9195,7 +9195,7 @@
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R152">
         <v>14</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9292,7 +9292,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9339,7 +9339,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9386,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9433,7 +9433,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9483,7 +9483,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R158">
         <v>15</v>
@@ -9536,7 +9536,7 @@
         <v>1</v>
       </c>
       <c r="Q159">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R159">
         <v>9</v>
@@ -9589,7 +9589,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R160">
         <v>17</v>
@@ -9639,7 +9639,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9689,7 +9689,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R162">
         <v>5</v>
@@ -9739,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9789,7 +9789,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R164">
         <v>5</v>
@@ -9839,7 +9839,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9936,7 +9936,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R167">
         <v>9</v>
@@ -9986,7 +9986,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10036,7 +10036,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10086,7 +10086,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R170">
         <v>20</v>
@@ -10139,7 +10139,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R171">
         <v>12</v>
@@ -10192,7 +10192,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R172">
         <v>12</v>
@@ -10245,7 +10245,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10292,7 +10292,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10339,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10389,7 +10389,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R176">
         <v>17</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10489,7 +10489,7 @@
         <v>1</v>
       </c>
       <c r="Q178">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R178">
         <v>19</v>
@@ -10539,7 +10539,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10639,7 +10639,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R181">
         <v>16</v>
@@ -10692,7 +10692,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10742,7 +10742,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R183">
         <v>8</v>
@@ -10792,7 +10792,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10842,7 +10842,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R185">
         <v>27</v>
@@ -10895,7 +10895,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10945,7 +10945,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R187">
         <v>18</v>
@@ -10998,7 +10998,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11048,7 +11048,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R189">
         <v>9</v>
@@ -11098,7 +11098,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11148,7 +11148,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R191">
         <v>19</v>
@@ -11195,7 +11195,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11242,7 +11242,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11289,7 +11289,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11336,7 +11336,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11383,7 +11383,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11430,7 +11430,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11477,7 +11477,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11527,7 +11527,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R199">
         <v>5</v>
@@ -11577,7 +11577,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11624,7 +11624,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11674,7 +11674,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R202">
         <v>31</v>
@@ -11727,7 +11727,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R203">
         <v>22</v>
@@ -11777,7 +11777,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11821,7 +11821,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11868,7 +11868,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11918,7 +11918,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11968,7 +11968,7 @@
         <v>1</v>
       </c>
       <c r="Q208">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R208">
         <v>28</v>
@@ -12015,7 +12015,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12062,7 +12062,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12109,7 +12109,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12156,7 +12156,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12203,7 +12203,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12250,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12297,7 +12297,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12344,7 +12344,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12391,7 +12391,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12438,7 +12438,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12485,7 +12485,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12532,7 +12532,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12579,7 +12579,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12629,7 +12629,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R222">
         <v>26</v>
@@ -12673,10 +12673,10 @@
         <v>1</v>
       </c>
       <c r="P223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q223">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12723,7 +12723,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12770,7 +12770,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12817,7 +12817,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12864,7 +12864,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12905,10 +12905,10 @@
         <v>1</v>
       </c>
       <c r="P228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q228">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12958,7 +12958,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="R229">
         <v>23</v>
@@ -13008,7 +13008,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13058,7 +13058,7 @@
         <v>1</v>
       </c>
       <c r="Q231">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="R231">
         <v>16</v>
@@ -13111,7 +13111,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13161,7 +13161,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="R233">
         <v>23</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13261,7 +13261,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R235">
         <v>29</v>
@@ -13311,7 +13311,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13361,7 +13361,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R237">
         <v>19</v>
@@ -13414,7 +13414,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13461,7 +13461,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13511,7 +13511,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13558,7 +13558,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13605,7 +13605,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13652,7 +13652,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13702,7 +13702,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13752,7 +13752,7 @@
         <v>1</v>
       </c>
       <c r="Q245">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R245">
         <v>17</v>
@@ -13802,7 +13802,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13852,7 +13852,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R247">
         <v>22</v>
@@ -13902,7 +13902,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13952,7 +13952,7 @@
         <v>1</v>
       </c>
       <c r="Q249">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R249">
         <v>10</v>
@@ -14002,7 +14002,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14049,7 +14049,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14096,7 +14096,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14143,7 +14143,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14190,7 +14190,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14240,7 +14240,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R255">
         <v>0</v>
@@ -14293,7 +14293,7 @@
         <v>1</v>
       </c>
       <c r="Q256">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R256">
         <v>7</v>
@@ -14343,7 +14343,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14390,7 +14390,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14440,7 +14440,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R259">
         <v>26</v>
@@ -14493,7 +14493,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R260">
         <v>21</v>
@@ -14543,7 +14543,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14593,7 +14593,7 @@
         <v>1</v>
       </c>
       <c r="Q262">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R262">
         <v>14</v>
@@ -14643,7 +14643,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14690,7 +14690,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14737,7 +14737,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14781,7 +14781,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14831,7 +14831,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R267">
         <v>0</v>
@@ -14881,7 +14881,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14928,7 +14928,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -14975,7 +14975,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15022,7 +15022,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15072,7 +15072,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R272">
         <v>15</v>
@@ -15122,7 +15122,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15169,7 +15169,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15216,7 +15216,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15266,7 +15266,7 @@
         <v>1</v>
       </c>
       <c r="Q276">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R276">
         <v>14</v>
@@ -15319,7 +15319,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R277">
         <v>17</v>
@@ -15372,7 +15372,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15422,7 +15422,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R279">
         <v>13</v>
@@ -15475,7 +15475,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15525,7 +15525,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R281">
         <v>6</v>
@@ -15575,7 +15575,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15625,7 +15625,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R283">
         <v>11</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15722,7 +15722,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15769,7 +15769,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15816,7 +15816,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15863,7 +15863,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15913,7 +15913,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R289">
         <v>5</v>
@@ -15966,7 +15966,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16013,7 +16013,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16063,7 +16063,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16113,7 +16113,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R293">
         <v>19</v>
@@ -16163,7 +16163,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16210,7 +16210,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16257,7 +16257,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16307,7 +16307,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16357,7 +16357,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R298">
         <v>26</v>
@@ -16404,7 +16404,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16451,7 +16451,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16498,7 +16498,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16545,7 +16545,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16592,7 +16592,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16639,7 +16639,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16689,7 +16689,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R305">
         <v>17</v>
@@ -16742,7 +16742,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R306">
         <v>23</v>
@@ -16792,7 +16792,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16839,7 +16839,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16889,7 +16889,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R309">
         <v>0</v>
@@ -16942,7 +16942,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R310">
         <v>13</v>
@@ -16995,7 +16995,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17042,7 +17042,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17092,7 +17092,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17142,7 +17142,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R314">
         <v>28</v>
@@ -17192,7 +17192,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17239,7 +17239,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17286,7 +17286,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17333,7 +17333,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17380,7 +17380,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17430,7 +17430,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R320">
         <v>25</v>
@@ -17483,7 +17483,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17533,7 +17533,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R322">
         <v>20</v>
@@ -17586,7 +17586,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17636,7 +17636,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R324">
         <v>11</v>
@@ -17689,7 +17689,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17736,7 +17736,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17789,7 +17789,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R327">
         <v>19</v>
@@ -17839,7 +17839,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17886,7 +17886,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17933,7 +17933,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -17980,7 +17980,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18030,7 +18030,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18080,7 +18080,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R333">
         <v>26</v>
@@ -18130,7 +18130,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18177,7 +18177,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18224,7 +18224,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18271,7 +18271,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18318,7 +18318,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18365,7 +18365,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18412,7 +18412,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18462,7 +18462,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R341">
         <v>7</v>
@@ -18515,7 +18515,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18565,7 +18565,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R343">
         <v>25</v>
@@ -18618,7 +18618,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18665,7 +18665,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18715,7 +18715,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18765,7 +18765,7 @@
         <v>1</v>
       </c>
       <c r="Q347">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R347">
         <v>15</v>
@@ -18815,7 +18815,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18862,7 +18862,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18909,7 +18909,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18956,7 +18956,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19003,7 +19003,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19050,7 +19050,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19100,7 +19100,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R354">
         <v>14</v>
@@ -19156,7 +19156,7 @@
         <v>1</v>
       </c>
       <c r="Q355">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R355">
         <v>4</v>
@@ -19200,10 +19200,10 @@
         <v>1</v>
       </c>
       <c r="P356" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q356">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19250,7 +19250,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19297,7 +19297,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19338,10 +19338,10 @@
         <v>1</v>
       </c>
       <c r="P359" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q359">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19388,7 +19388,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19438,7 +19438,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19488,7 +19488,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="R362">
         <v>19</v>
@@ -19538,7 +19538,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19585,7 +19585,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19632,7 +19632,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19682,7 +19682,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="R366">
         <v>12</v>
@@ -19735,7 +19735,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19782,7 +19782,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19829,7 +19829,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19879,7 +19879,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="R370">
         <v>14</v>
@@ -19929,7 +19929,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -19979,7 +19979,7 @@
         <v>1</v>
       </c>
       <c r="Q372">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="R372">
         <v>27</v>
@@ -20032,7 +20032,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20082,7 +20082,7 @@
         <v>1</v>
       </c>
       <c r="Q374">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="R374">
         <v>14</v>
@@ -20135,7 +20135,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20182,7 +20182,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20229,7 +20229,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20276,7 +20276,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20323,7 +20323,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20373,7 +20373,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R380">
         <v>20</v>
@@ -20426,7 +20426,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20473,7 +20473,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20520,7 +20520,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20567,7 +20567,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20614,7 +20614,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20658,7 +20658,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20708,7 +20708,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R387">
         <v>5</v>
@@ -20758,7 +20758,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20808,7 +20808,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R389">
         <v>0</v>
@@ -20861,7 +20861,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20911,7 +20911,7 @@
         <v>1</v>
       </c>
       <c r="Q391">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R391">
         <v>19</v>
@@ -20964,7 +20964,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21014,7 +21014,7 @@
         <v>1</v>
       </c>
       <c r="Q393">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R393">
         <v>8</v>
@@ -21067,7 +21067,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21114,7 +21114,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21161,7 +21161,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21211,7 +21211,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R397">
         <v>25</v>
@@ -21261,7 +21261,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21311,7 +21311,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R399">
         <v>17</v>
@@ -21364,7 +21364,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21414,7 +21414,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R401">
         <v>9</v>
@@ -21464,7 +21464,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21514,7 +21514,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R403">
         <v>22</v>
@@ -21567,7 +21567,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R404">
         <v>19</v>
@@ -21617,7 +21617,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21664,7 +21664,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21711,7 +21711,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21758,7 +21758,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21805,7 +21805,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21852,7 +21852,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21902,7 +21902,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R411">
         <v>0</v>
@@ -21955,7 +21955,7 @@
         <v>1</v>
       </c>
       <c r="Q412">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R412">
         <v>9</v>
@@ -22005,7 +22005,7 @@
         <v>1</v>
       </c>
       <c r="Q413">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R413">
         <v>28</v>
@@ -22058,7 +22058,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R414">
         <v>16</v>
@@ -22111,7 +22111,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R415">
         <v>22</v>
@@ -22161,7 +22161,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22208,7 +22208,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22255,7 +22255,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22302,7 +22302,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22349,7 +22349,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22396,7 +22396,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22443,7 +22443,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22493,7 +22493,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R423">
         <v>28</v>
@@ -22543,7 +22543,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22587,7 +22587,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22637,7 +22637,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R426">
         <v>19</v>
@@ -22687,7 +22687,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R427">
         <v>26</v>
@@ -22737,7 +22737,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22784,7 +22784,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22881,7 +22881,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R431">
         <v>23</v>
@@ -22931,7 +22931,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -22981,7 +22981,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R433">
         <v>12</v>
@@ -23034,7 +23034,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23084,7 +23084,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R435">
         <v>19</v>
@@ -23134,7 +23134,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23184,7 +23184,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23231,7 +23231,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23325,7 +23325,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23375,7 +23375,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23425,7 +23425,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R442">
         <v>21</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23525,7 +23525,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23572,7 +23572,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23669,7 +23669,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R447">
         <v>0</v>
@@ -23722,7 +23722,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23769,7 +23769,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23816,7 +23816,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23863,7 +23863,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23960,7 +23960,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R453">
         <v>7</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24060,7 +24060,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24110,7 +24110,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24160,7 +24160,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R457">
         <v>23</v>
@@ -24210,7 +24210,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24254,7 +24254,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24304,7 +24304,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R460">
         <v>12</v>
@@ -24354,7 +24354,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24401,7 +24401,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24451,7 +24451,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R463">
         <v>0</v>
@@ -24501,7 +24501,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24548,7 +24548,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24595,7 +24595,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24645,7 +24645,7 @@
         <v>1</v>
       </c>
       <c r="Q467">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R467">
         <v>27</v>
@@ -24698,7 +24698,7 @@
         <v>1</v>
       </c>
       <c r="Q468">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R468">
         <v>13</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24795,7 +24795,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24842,7 +24842,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24892,7 +24892,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R472">
         <v>16</v>
@@ -24945,7 +24945,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -24995,7 +24995,7 @@
         <v>1</v>
       </c>
       <c r="Q474">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R474">
         <v>8</v>
@@ -25045,7 +25045,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25095,7 +25095,7 @@
         <v>1</v>
       </c>
       <c r="Q476">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R476">
         <v>6</v>
@@ -25145,7 +25145,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25195,7 +25195,7 @@
         <v>1</v>
       </c>
       <c r="Q478">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R478">
         <v>2</v>
@@ -25245,7 +25245,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25289,7 +25289,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25336,7 +25336,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25383,7 +25383,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25433,7 +25433,7 @@
         <v>1</v>
       </c>
       <c r="Q483">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R483">
         <v>10</v>
@@ -25483,7 +25483,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25533,7 +25533,7 @@
         <v>1</v>
       </c>
       <c r="Q485">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R485">
         <v>2</v>
@@ -25583,7 +25583,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25677,7 +25677,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25771,7 +25771,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25818,7 +25818,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25868,7 +25868,7 @@
         <v>1</v>
       </c>
       <c r="Q492">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R492">
         <v>6</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -25962,7 +25962,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26062,7 +26062,7 @@
         <v>1</v>
       </c>
       <c r="Q496">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R496">
         <v>6</v>
@@ -26112,7 +26112,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26159,7 +26159,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26206,7 +26206,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26253,7 +26253,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26303,7 +26303,7 @@
         <v>1</v>
       </c>
       <c r="Q501">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R501">
         <v>9</v>
@@ -26347,10 +26347,10 @@
         <v>1</v>
       </c>
       <c r="P502" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q502">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26391,7 +26391,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
